--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value361.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value361.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6744228792982342</v>
+        <v>0.9846819043159485</v>
       </c>
       <c r="B1">
-        <v>0.9865189142273789</v>
+        <v>3.066795825958252</v>
       </c>
       <c r="C1">
-        <v>1.95830037543093</v>
+        <v>4.005835056304932</v>
       </c>
       <c r="D1">
-        <v>3.408785068301441</v>
+        <v>2.046697854995728</v>
       </c>
       <c r="E1">
-        <v>1.998308914061838</v>
+        <v>1.212541580200195</v>
       </c>
     </row>
   </sheetData>
